--- a/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2135A6-FF03-344E-9091-F8B045EFC5BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AB7FF-9771-B946-B7E3-17E402E94389}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26480" yWindow="1280" windowWidth="17200" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>Value</t>
   </si>
@@ -565,14 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -593,8 +592,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>43798750</v>
